--- a/data/tests/cluster_27.xlsx
+++ b/data/tests/cluster_27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,6 +483,223 @@
         <v>27</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Rv1165</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>typA bipA Rv1165</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>FUNCTION: A 50S ribosomal subunit assembly protein with GTPase activity, required for 50S subunit assembly at low temperatures, may also play a role in translation. Binds GTP and analogs. Binds the 70S ribosome between the 30S and 50S subunits, in a similar position as ribosome-bound EF-G; it contacts a number of ribosomal proteins, both rRNAs and the A-site tRNA. {ECO:0000256|HAMAP-Rule:MF_00849}.</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Rv0319</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>pcp Rv0319 MTCY63.24</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>FUNCTION: Removes 5-oxoproline from various penultimate amino acid residues except L-proline. {ECO:0000250}.</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Rv0795</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Rv0795 MTV042.05; Rv1370c MTCY02B12.04c; Rv1757c MTCY28.23c; Rv1763 MTCY28.29; Rv2105 MTCY261.01; Rv2168c MTV021.01c; Rv2278 MTCY339.32c; Rv2354 MTCY98.23; Rv2480c MTV008.36c; Rv2648 MTCY441.17A; Rv2815c MTCY16B7.28; Rv3184 MYV014.28; Rv3186 MTV014.30; Rv3325 MTV016.25; Rv3381c MTV004.39c; Rv3474 MTCY13E12.27</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Rv0218</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Rv0218</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Rv0336</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Rv0336</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Rv0325</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Rv0325</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Rv0399c</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>lpqK Rv0399c</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Rv0585c</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Rv0585c</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Rv1768</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PE_PGRS31 Rv1768</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Rv0976c</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Rv0976c</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Rv3629c</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Rv3629c</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
